--- a/tesi_camilla/casi_MarioU/transport/sets.xlsx
+++ b/tesi_camilla/casi_MarioU/transport/sets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_thesis/tesi_camilla/casi_MarioU/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83F338F-3377-4148-9D2A-31FCD845146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377F2DFC-12ED-0E4F-A139-4193C413ABFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4291" uniqueCount="1487">
   <si>
     <t>days_names</t>
   </si>
@@ -4490,6 +4490,15 @@
   </si>
   <si>
     <t>BEV motorway summer</t>
+  </si>
+  <si>
+    <t>ICEV fuel</t>
+  </si>
+  <si>
+    <t>ICEV fueling</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
   </si>
 </sst>
 </file>
@@ -20006,10 +20015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20056,11 +20065,16 @@
     </row>
     <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1465</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
@@ -20071,10 +20085,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20282,12 +20296,23 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>1473</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -20298,10 +20323,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20647,7 +20672,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1478</v>
+        <v>1485</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
@@ -20655,21 +20680,33 @@
       <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>1473</v>
-      </c>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>1479</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>1473</v>
       </c>
     </row>
